--- a/csv/maps.xlsx
+++ b/csv/maps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1433"/>
+  <dimension ref="A1:S1438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80653,7 +80653,7 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1144">
@@ -81282,7 +81282,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1153">
@@ -93481,7 +93481,7 @@
       </c>
       <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1326" t="n">
         <v>0</v>
@@ -93828,7 +93828,11 @@
           <t>2021/8/5</t>
         </is>
       </c>
-      <c r="K1331" t="inlineStr"/>
+      <c r="K1331" t="inlineStr">
+        <is>
+          <t>2021/8/14</t>
+        </is>
+      </c>
       <c r="L1331" t="n">
         <v>12</v>
       </c>
@@ -96939,7 +96943,7 @@
       </c>
       <c r="K1376" t="inlineStr"/>
       <c r="L1376" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M1376" t="n">
         <v>0</v>
@@ -97629,7 +97633,7 @@
       </c>
       <c r="K1386" t="inlineStr"/>
       <c r="L1386" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1386" t="n">
         <v>0</v>
@@ -97767,7 +97771,7 @@
       </c>
       <c r="K1388" t="inlineStr"/>
       <c r="L1388" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1388" t="n">
         <v>1</v>
@@ -97836,7 +97840,7 @@
       </c>
       <c r="K1389" t="inlineStr"/>
       <c r="L1389" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1389" t="n">
         <v>1</v>
@@ -98181,7 +98185,7 @@
       </c>
       <c r="K1394" t="inlineStr"/>
       <c r="L1394" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1394" t="n">
         <v>0</v>
@@ -99492,7 +99496,7 @@
       </c>
       <c r="K1413" t="inlineStr"/>
       <c r="L1413" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1413" t="n">
         <v>0</v>
@@ -99699,7 +99703,7 @@
       </c>
       <c r="K1416" t="inlineStr"/>
       <c r="L1416" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1416" t="n">
         <v>1</v>
@@ -100031,7 +100035,7 @@
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>カラオケ飲食店(友人会食)</t>
+          <t>カラオケ飲食店(市37例)</t>
         </is>
       </c>
       <c r="I1421" t="n">
@@ -100044,7 +100048,7 @@
       </c>
       <c r="K1421" t="inlineStr"/>
       <c r="L1421" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1421" t="n">
         <v>0</v>
@@ -100376,7 +100380,7 @@
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>コールセンター(市359例)</t>
+          <t>コールセンター(市377例)</t>
         </is>
       </c>
       <c r="I1426" t="n">
@@ -100872,7 +100876,7 @@
       </c>
       <c r="K1433" t="inlineStr"/>
       <c r="L1433" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M1433" t="n">
         <v>1</v>
@@ -100896,6 +100900,351 @@
       </c>
       <c r="S1433" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>1433</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>43.80560394</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>143.8353274</v>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1434" t="inlineStr">
+        <is>
+          <t>北見市</t>
+        </is>
+      </c>
+      <c r="F1434" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1434" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1434" t="inlineStr">
+        <is>
+          <t>運送会社 北見営業所</t>
+        </is>
+      </c>
+      <c r="I1434" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1434" t="inlineStr">
+        <is>
+          <t>2021/8/15</t>
+        </is>
+      </c>
+      <c r="K1434" t="inlineStr"/>
+      <c r="L1434" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="inlineStr"/>
+      <c r="Q1434" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1434" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1434" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>1434</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>43.08934535</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>141.3973811</v>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1435" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1435" t="inlineStr">
+        <is>
+          <t>保育園/幼稚園</t>
+        </is>
+      </c>
+      <c r="G1435" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1435" t="inlineStr">
+        <is>
+          <t>認可外保育施設(市380例)</t>
+        </is>
+      </c>
+      <c r="I1435" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1435" t="inlineStr">
+        <is>
+          <t>2021/8/15</t>
+        </is>
+      </c>
+      <c r="K1435" t="inlineStr"/>
+      <c r="L1435" t="n">
+        <v>17</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="inlineStr"/>
+      <c r="Q1435" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1435" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1435" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>1435</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>43.10012557</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>141.3778117</v>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1436" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1436" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1436" t="inlineStr">
+        <is>
+          <t>スーパー(市381例)</t>
+        </is>
+      </c>
+      <c r="I1436" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1436" t="inlineStr">
+        <is>
+          <t>2021/8/15</t>
+        </is>
+      </c>
+      <c r="K1436" t="inlineStr"/>
+      <c r="L1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="inlineStr"/>
+      <c r="Q1436" t="inlineStr">
+        <is>
+          <t>スーパー</t>
+        </is>
+      </c>
+      <c r="R1436" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1436" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>43.10914942</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>141.421757</v>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1437" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>福祉施設</t>
+        </is>
+      </c>
+      <c r="G1437" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1437" t="inlineStr">
+        <is>
+          <t>障がい福祉サービス事業所(市382例)</t>
+        </is>
+      </c>
+      <c r="I1437" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1437" t="inlineStr">
+        <is>
+          <t>2021/8/15</t>
+        </is>
+      </c>
+      <c r="K1437" t="inlineStr"/>
+      <c r="L1437" t="n">
+        <v>8</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="inlineStr"/>
+      <c r="Q1437" t="inlineStr">
+        <is>
+          <t>福祉施設</t>
+        </is>
+      </c>
+      <c r="R1437" t="inlineStr">
+        <is>
+          <t>医療福祉介護</t>
+        </is>
+      </c>
+      <c r="S1437" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>1437</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>43.08016186</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>141.395289</v>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1438" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1438" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1438" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1438" t="inlineStr">
+        <is>
+          <t>札幌拘置支所</t>
+        </is>
+      </c>
+      <c r="I1438" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1438" t="inlineStr">
+        <is>
+          <t>2021/8/15</t>
+        </is>
+      </c>
+      <c r="K1438" t="inlineStr"/>
+      <c r="L1438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="inlineStr"/>
+      <c r="Q1438" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1438" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1438" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/csv/maps.xlsx
+++ b/csv/maps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1438"/>
+  <dimension ref="A1:S1444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93481,7 +93481,7 @@
       </c>
       <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1326" t="n">
         <v>0</v>
@@ -94593,7 +94593,7 @@
       </c>
       <c r="K1342" t="inlineStr"/>
       <c r="L1342" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1342" t="n">
         <v>0</v>
@@ -96943,7 +96943,7 @@
       </c>
       <c r="K1376" t="inlineStr"/>
       <c r="L1376" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="M1376" t="n">
         <v>0</v>
@@ -97564,7 +97564,7 @@
       </c>
       <c r="K1385" t="inlineStr"/>
       <c r="L1385" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1385" t="n">
         <v>1</v>
@@ -100863,7 +100863,7 @@
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>五稜郭病院</t>
+          <t>五稜郭病院(市21例)</t>
         </is>
       </c>
       <c r="I1433" t="n">
@@ -100876,7 +100876,7 @@
       </c>
       <c r="K1433" t="inlineStr"/>
       <c r="L1433" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1433" t="n">
         <v>1</v>
@@ -101244,6 +101244,420 @@
         </is>
       </c>
       <c r="S1438" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>1438</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>41.79466521</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>140.7684034</v>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1439" t="inlineStr">
+        <is>
+          <t>函館市</t>
+        </is>
+      </c>
+      <c r="F1439" t="inlineStr">
+        <is>
+          <t>小学校</t>
+        </is>
+      </c>
+      <c r="G1439" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1439" t="inlineStr">
+        <is>
+          <t>学童保育所(市22例)</t>
+        </is>
+      </c>
+      <c r="I1439" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1439" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
+      <c r="K1439" t="inlineStr"/>
+      <c r="L1439" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="inlineStr"/>
+      <c r="Q1439" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1439" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1439" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>1439</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>41.7881379</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>140.7543271</v>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1440" t="inlineStr">
+        <is>
+          <t>函館市</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="G1440" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1440" t="inlineStr">
+        <is>
+          <t>飲食店(市23例)</t>
+        </is>
+      </c>
+      <c r="I1440" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1440" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
+      <c r="K1440" t="inlineStr"/>
+      <c r="L1440" t="n">
+        <v>8</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="inlineStr"/>
+      <c r="Q1440" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="R1440" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="S1440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>1440</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>43.09036685</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>141.2341062</v>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1441" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1441" t="inlineStr">
+        <is>
+          <t>保育園/幼稚園</t>
+        </is>
+      </c>
+      <c r="G1441" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1441" t="inlineStr">
+        <is>
+          <t>認可外保育施設(市383例)</t>
+        </is>
+      </c>
+      <c r="I1441" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1441" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
+      <c r="K1441" t="inlineStr"/>
+      <c r="L1441" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="inlineStr"/>
+      <c r="Q1441" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1441" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1441" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>1441</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>43.06047247</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>141.3577004</v>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1442" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1442" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1442" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1442" t="inlineStr">
+        <is>
+          <t>子ども未来局 子育て支援部</t>
+        </is>
+      </c>
+      <c r="I1442" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1442" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
+      <c r="K1442" t="inlineStr"/>
+      <c r="L1442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="inlineStr"/>
+      <c r="Q1442" t="inlineStr">
+        <is>
+          <t>オフィス</t>
+        </is>
+      </c>
+      <c r="R1442" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1442" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>1442</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>43.06446974</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>141.4185576</v>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1443" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1443" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1443" t="inlineStr">
+        <is>
+          <t>札幌市立北白石中学校</t>
+        </is>
+      </c>
+      <c r="I1443" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1443" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
+      <c r="K1443" t="inlineStr"/>
+      <c r="L1443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="inlineStr"/>
+      <c r="Q1443" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1443" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1443" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>1443</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>42.42909331</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>140.9788355</v>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1444" t="inlineStr">
+        <is>
+          <t>胆振地方</t>
+        </is>
+      </c>
+      <c r="F1444" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1444" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1444" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="I1444" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1444" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
+      <c r="K1444" t="inlineStr"/>
+      <c r="L1444" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="inlineStr"/>
+      <c r="Q1444" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1444" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1444" t="n">
         <v>3</v>
       </c>
     </row>

--- a/csv/maps.xlsx
+++ b/csv/maps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1444"/>
+  <dimension ref="A1:S1455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93481,7 +93481,7 @@
       </c>
       <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1326" t="n">
         <v>0</v>
@@ -94660,7 +94660,11 @@
           <t>2021/8/6</t>
         </is>
       </c>
-      <c r="K1343" t="inlineStr"/>
+      <c r="K1343" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
       <c r="L1343" t="n">
         <v>13</v>
       </c>
@@ -96943,7 +96947,7 @@
       </c>
       <c r="K1376" t="inlineStr"/>
       <c r="L1376" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M1376" t="n">
         <v>0</v>
@@ -99496,7 +99500,7 @@
       </c>
       <c r="K1413" t="inlineStr"/>
       <c r="L1413" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1413" t="n">
         <v>0</v>
@@ -100048,7 +100052,7 @@
       </c>
       <c r="K1421" t="inlineStr"/>
       <c r="L1421" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M1421" t="n">
         <v>0</v>
@@ -100945,7 +100949,7 @@
       </c>
       <c r="K1434" t="inlineStr"/>
       <c r="L1434" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1434" t="n">
         <v>0</v>
@@ -101083,7 +101087,7 @@
       </c>
       <c r="K1436" t="inlineStr"/>
       <c r="L1436" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1436" t="n">
         <v>0</v>
@@ -101359,7 +101363,7 @@
       </c>
       <c r="K1440" t="inlineStr"/>
       <c r="L1440" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M1440" t="n">
         <v>0</v>
@@ -101658,6 +101662,765 @@
         </is>
       </c>
       <c r="S1444" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>43.74693901</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>142.3156544</v>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>旭川市</t>
+        </is>
+      </c>
+      <c r="F1445" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="G1445" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1445" t="inlineStr">
+        <is>
+          <t>飲食会(市38例)</t>
+        </is>
+      </c>
+      <c r="I1445" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1445" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1445" t="inlineStr"/>
+      <c r="L1445" t="n">
+        <v>9</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="inlineStr"/>
+      <c r="Q1445" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="R1445" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="S1445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>1445</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>43.75487502</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>142.4282642</v>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1446" t="inlineStr">
+        <is>
+          <t>旭川市</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1446" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1446" t="inlineStr">
+        <is>
+          <t>企業(市39例)</t>
+        </is>
+      </c>
+      <c r="I1446" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1446" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1446" t="inlineStr"/>
+      <c r="L1446" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="inlineStr"/>
+      <c r="Q1446" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1446" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1446" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>1446</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>43.02922745</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>141.344197</v>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1447" t="inlineStr">
+        <is>
+          <t>自衛隊</t>
+        </is>
+      </c>
+      <c r="G1447" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1447" t="inlineStr">
+        <is>
+          <t>陸上自衛隊駐屯地(市384例)</t>
+        </is>
+      </c>
+      <c r="I1447" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1447" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1447" t="inlineStr"/>
+      <c r="L1447" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="inlineStr"/>
+      <c r="Q1447" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1447" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1447" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>1447</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>43.06212433</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>141.3543806</v>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1448" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1448" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1448" t="inlineStr">
+        <is>
+          <t>札幌市議会 議会事務局</t>
+        </is>
+      </c>
+      <c r="I1448" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1448" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1448" t="inlineStr"/>
+      <c r="L1448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="inlineStr"/>
+      <c r="Q1448" t="inlineStr">
+        <is>
+          <t>オフィス</t>
+        </is>
+      </c>
+      <c r="R1448" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1448" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>1448</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>42.99401932</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>141.4555683</v>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1449" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1449" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1449" t="inlineStr">
+        <is>
+          <t>札幌市立平岡中学校</t>
+        </is>
+      </c>
+      <c r="I1449" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1449" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1449" t="inlineStr"/>
+      <c r="L1449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="inlineStr"/>
+      <c r="Q1449" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1449" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1449" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>1449</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>41.86512221</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>140.6490642</v>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1450" t="inlineStr">
+        <is>
+          <t>北斗市</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1450" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1450" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="I1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1450" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1450" t="inlineStr"/>
+      <c r="L1450" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="inlineStr"/>
+      <c r="Q1450" t="inlineStr">
+        <is>
+          <t>オフィス</t>
+        </is>
+      </c>
+      <c r="R1450" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1450" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>42.98204503</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>144.3992782</v>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1451" t="inlineStr">
+        <is>
+          <t>釧路市</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr">
+        <is>
+          <t>大学</t>
+        </is>
+      </c>
+      <c r="G1451" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1451" t="inlineStr">
+        <is>
+          <t>北海道教育大学 釧路校</t>
+        </is>
+      </c>
+      <c r="I1451" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1451" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1451" t="inlineStr"/>
+      <c r="L1451" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="inlineStr"/>
+      <c r="Q1451" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1451" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1451" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>1451</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>43.78768649</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>142.3467241</v>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>旭川市</t>
+        </is>
+      </c>
+      <c r="F1452" t="inlineStr">
+        <is>
+          <t>大学</t>
+        </is>
+      </c>
+      <c r="G1452" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>北海道教育大学 旭川校</t>
+        </is>
+      </c>
+      <c r="I1452" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1452" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1452" t="inlineStr"/>
+      <c r="L1452" t="n">
+        <v>3</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="inlineStr"/>
+      <c r="Q1452" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1452" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1452" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>43.06445483</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>141.3458299</v>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1453" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1453" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1453" t="inlineStr">
+        <is>
+          <t>札幌道税事務所</t>
+        </is>
+      </c>
+      <c r="I1453" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1453" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1453" t="inlineStr"/>
+      <c r="L1453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="inlineStr"/>
+      <c r="Q1453" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1453" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1453" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>43.06418556</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>141.3468642</v>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1454" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1454" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1454" t="inlineStr">
+        <is>
+          <t>道庁 経済部</t>
+        </is>
+      </c>
+      <c r="I1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1454" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1454" t="inlineStr"/>
+      <c r="L1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="inlineStr"/>
+      <c r="Q1454" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1454" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1454" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>1454</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>42.48656156</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>140.9342891</v>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1455" t="inlineStr">
+        <is>
+          <t>苫小牧市</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1455" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1455" t="inlineStr">
+        <is>
+          <t>胆振総合振興局</t>
+        </is>
+      </c>
+      <c r="I1455" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1455" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
+      <c r="K1455" t="inlineStr"/>
+      <c r="L1455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="inlineStr"/>
+      <c r="Q1455" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1455" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1455" t="n">
         <v>3</v>
       </c>
     </row>

--- a/csv/maps.xlsx
+++ b/csv/maps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1455"/>
+  <dimension ref="A1:S1472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92777,7 +92777,11 @@
           <t>2021/8/2</t>
         </is>
       </c>
-      <c r="K1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
       <c r="L1316" t="n">
         <v>11</v>
       </c>
@@ -93481,7 +93485,7 @@
       </c>
       <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1326" t="n">
         <v>0</v>
@@ -94593,7 +94597,7 @@
       </c>
       <c r="K1342" t="inlineStr"/>
       <c r="L1342" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1342" t="n">
         <v>0</v>
@@ -96947,7 +96951,7 @@
       </c>
       <c r="K1376" t="inlineStr"/>
       <c r="L1376" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M1376" t="n">
         <v>0</v>
@@ -97014,7 +97018,11 @@
           <t>2021/8/10</t>
         </is>
       </c>
-      <c r="K1377" t="inlineStr"/>
+      <c r="K1377" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
       <c r="L1377" t="n">
         <v>14</v>
       </c>
@@ -97637,7 +97645,7 @@
       </c>
       <c r="K1386" t="inlineStr"/>
       <c r="L1386" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1386" t="n">
         <v>0</v>
@@ -97911,7 +97919,11 @@
           <t>2021/8/11</t>
         </is>
       </c>
-      <c r="K1390" t="inlineStr"/>
+      <c r="K1390" t="inlineStr">
+        <is>
+          <t>2021/8/17</t>
+        </is>
+      </c>
       <c r="L1390" t="n">
         <v>8</v>
       </c>
@@ -98189,7 +98201,7 @@
       </c>
       <c r="K1394" t="inlineStr"/>
       <c r="L1394" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1394" t="n">
         <v>0</v>
@@ -100742,7 +100754,7 @@
       </c>
       <c r="K1431" t="inlineStr"/>
       <c r="L1431" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M1431" t="n">
         <v>0</v>
@@ -101087,7 +101099,7 @@
       </c>
       <c r="K1436" t="inlineStr"/>
       <c r="L1436" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M1436" t="n">
         <v>0</v>
@@ -101363,7 +101375,7 @@
       </c>
       <c r="K1440" t="inlineStr"/>
       <c r="L1440" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M1440" t="n">
         <v>0</v>
@@ -101501,7 +101513,7 @@
       </c>
       <c r="K1442" t="inlineStr"/>
       <c r="L1442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1442" t="n">
         <v>0</v>
@@ -101808,10 +101820,10 @@
         <v>1446</v>
       </c>
       <c r="B1447" t="n">
-        <v>43.02922745</v>
+        <v>43.02468969</v>
       </c>
       <c r="C1447" t="n">
-        <v>141.344197</v>
+        <v>141.3468009</v>
       </c>
       <c r="D1447" t="inlineStr">
         <is>
@@ -101833,7 +101845,7 @@
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>陸上自衛隊駐屯地(市384例)</t>
+          <t>陸上自衛隊札幌駐屯地(市384例)</t>
         </is>
       </c>
       <c r="I1447" t="n">
@@ -102053,7 +102065,7 @@
       </c>
       <c r="K1450" t="inlineStr"/>
       <c r="L1450" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M1450" t="n">
         <v>0</v>
@@ -102422,6 +102434,1179 @@
       </c>
       <c r="S1455" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>1455</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>41.82240883</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>140.6394737</v>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>渡島地方</t>
+        </is>
+      </c>
+      <c r="F1456" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1456" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1456" t="inlineStr">
+        <is>
+          <t>遊技施設</t>
+        </is>
+      </c>
+      <c r="I1456" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1456" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1456" t="inlineStr"/>
+      <c r="L1456" t="n">
+        <v>7</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="inlineStr"/>
+      <c r="Q1456" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1456" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1456" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>1456</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>42.76334649</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>143.0311555</v>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>帯広市</t>
+        </is>
+      </c>
+      <c r="F1457" t="inlineStr">
+        <is>
+          <t>保育園/幼稚園</t>
+        </is>
+      </c>
+      <c r="G1457" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1457" t="inlineStr">
+        <is>
+          <t>あけぼの保育園</t>
+        </is>
+      </c>
+      <c r="I1457" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1457" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1457" t="inlineStr"/>
+      <c r="L1457" t="n">
+        <v>23</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="inlineStr"/>
+      <c r="Q1457" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1457" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1457" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>43.04297113</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>144.3165644</v>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1458" t="inlineStr">
+        <is>
+          <t>釧路地方</t>
+        </is>
+      </c>
+      <c r="F1458" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1458" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1458" t="inlineStr">
+        <is>
+          <t>食品加工業の事業所</t>
+        </is>
+      </c>
+      <c r="I1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1458" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1458" t="inlineStr"/>
+      <c r="L1458" t="n">
+        <v>7</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="inlineStr"/>
+      <c r="Q1458" t="inlineStr">
+        <is>
+          <t>食品加工場</t>
+        </is>
+      </c>
+      <c r="R1458" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1458" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>1458</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>43.03294396</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>141.3128175</v>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1459" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1459" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1459" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1459" t="inlineStr">
+        <is>
+          <t>コールセンター(市385例)</t>
+        </is>
+      </c>
+      <c r="I1459" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1459" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1459" t="inlineStr"/>
+      <c r="L1459" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="inlineStr"/>
+      <c r="Q1459" t="inlineStr">
+        <is>
+          <t>コールセンター</t>
+        </is>
+      </c>
+      <c r="R1459" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1459" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>1459</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>43.05652926</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>141.2860383</v>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1460" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1460" t="inlineStr">
+        <is>
+          <t>保育園/幼稚園</t>
+        </is>
+      </c>
+      <c r="G1460" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1460" t="inlineStr">
+        <is>
+          <t>認可保育施設(市386例)</t>
+        </is>
+      </c>
+      <c r="I1460" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1460" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1460" t="inlineStr"/>
+      <c r="L1460" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="inlineStr"/>
+      <c r="Q1460" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1460" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1460" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>1460</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>43.06241095</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>141.3543572</v>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1461" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1461" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1461" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1461" t="inlineStr">
+        <is>
+          <t>環境局 環境事業部(家庭ごみ収拾運搬)</t>
+        </is>
+      </c>
+      <c r="I1461" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1461" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1461" t="inlineStr"/>
+      <c r="L1461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="inlineStr"/>
+      <c r="Q1461" t="inlineStr">
+        <is>
+          <t>オフィス</t>
+        </is>
+      </c>
+      <c r="R1461" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1461" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>1461</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>43.11327184</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>141.3670795</v>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1462" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1462" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1462" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1462" t="inlineStr">
+        <is>
+          <t>地下鉄栄町駅〜つどーむ間 乗合タクシー運転手</t>
+        </is>
+      </c>
+      <c r="I1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1462" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1462" t="inlineStr"/>
+      <c r="L1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="inlineStr"/>
+      <c r="Q1462" t="inlineStr">
+        <is>
+          <t>自家用車</t>
+        </is>
+      </c>
+      <c r="R1462" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1462" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>1462</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>43.05706823</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>141.3804845</v>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1463" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1463" t="inlineStr">
+        <is>
+          <t>札幌市立幌東中学校</t>
+        </is>
+      </c>
+      <c r="I1463" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1463" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1463" t="inlineStr"/>
+      <c r="L1463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="inlineStr"/>
+      <c r="Q1463" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1463" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1463" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>1463</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>43.04260464</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>141.3998173</v>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr">
+        <is>
+          <t>小学校</t>
+        </is>
+      </c>
+      <c r="G1464" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1464" t="inlineStr">
+        <is>
+          <t>札幌市立南白石小学校</t>
+        </is>
+      </c>
+      <c r="I1464" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1464" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1464" t="inlineStr"/>
+      <c r="L1464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="inlineStr"/>
+      <c r="Q1464" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1464" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1464" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>42.94663432</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>141.3480175</v>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1465" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1465" t="inlineStr">
+        <is>
+          <t>札幌市立常盤中学校</t>
+        </is>
+      </c>
+      <c r="I1465" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1465" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1465" t="inlineStr"/>
+      <c r="L1465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="inlineStr"/>
+      <c r="Q1465" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1465" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1465" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>1465</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>43.07124885</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>141.4193157</v>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1466" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1466" t="inlineStr">
+        <is>
+          <t>札幌市立米里中学校</t>
+        </is>
+      </c>
+      <c r="I1466" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1466" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1466" t="inlineStr"/>
+      <c r="L1466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="inlineStr"/>
+      <c r="Q1466" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1466" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1466" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>1466</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>43.04858557</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>141.3723059</v>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr">
+        <is>
+          <t>小学校</t>
+        </is>
+      </c>
+      <c r="G1467" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1467" t="inlineStr">
+        <is>
+          <t>札幌市立豊平小学校</t>
+        </is>
+      </c>
+      <c r="I1467" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1467" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1467" t="inlineStr"/>
+      <c r="L1467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="inlineStr"/>
+      <c r="Q1467" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1467" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1467" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>1467</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>43.81090131</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>142.4368403</v>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>旭川市</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1468" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1468" t="inlineStr">
+        <is>
+          <t>旭川市 永山支所</t>
+        </is>
+      </c>
+      <c r="I1468" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1468" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1468" t="inlineStr"/>
+      <c r="L1468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="inlineStr"/>
+      <c r="Q1468" t="inlineStr">
+        <is>
+          <t>オフィス</t>
+        </is>
+      </c>
+      <c r="R1468" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1468" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>1468</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>42.33895451</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>142.3750741</v>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>新ひだか町</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr">
+        <is>
+          <t>医療機関</t>
+        </is>
+      </c>
+      <c r="G1469" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1469" t="inlineStr">
+        <is>
+          <t>町立静内病院</t>
+        </is>
+      </c>
+      <c r="I1469" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1469" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1469" t="inlineStr"/>
+      <c r="L1469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="inlineStr"/>
+      <c r="Q1469" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1469" t="inlineStr">
+        <is>
+          <t>医療福祉介護</t>
+        </is>
+      </c>
+      <c r="S1469" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>1469</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>43.19035206</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>140.9941424</v>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>小樽市</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1470" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1470" t="inlineStr">
+        <is>
+          <t>小樽市役所 財政部</t>
+        </is>
+      </c>
+      <c r="I1470" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1470" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1470" t="inlineStr"/>
+      <c r="L1470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="inlineStr"/>
+      <c r="Q1470" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1470" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1470" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>1470</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>42.33156761</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>140.9527883</v>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>室蘭市</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr">
+        <is>
+          <t>小学校</t>
+        </is>
+      </c>
+      <c r="G1471" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1471" t="inlineStr">
+        <is>
+          <t>室蘭市立みなと小学校</t>
+        </is>
+      </c>
+      <c r="I1471" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1471" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1471" t="inlineStr"/>
+      <c r="L1471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="inlineStr"/>
+      <c r="Q1471" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1471" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1471" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>42.37892375</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>141.0345676</v>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>室蘭市</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr">
+        <is>
+          <t>大学</t>
+        </is>
+      </c>
+      <c r="G1472" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1472" t="inlineStr">
+        <is>
+          <t>室蘭工業大学</t>
+        </is>
+      </c>
+      <c r="I1472" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1472" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
+      <c r="K1472" t="inlineStr"/>
+      <c r="L1472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="inlineStr"/>
+      <c r="Q1472" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1472" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1472" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/csv/maps.xlsx
+++ b/csv/maps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1472"/>
+  <dimension ref="A1:S1484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93207,9 +93207,13 @@
           <t>2021/8/3</t>
         </is>
       </c>
-      <c r="K1322" t="inlineStr"/>
+      <c r="K1322" t="inlineStr">
+        <is>
+          <t>2021/8/18</t>
+        </is>
+      </c>
       <c r="L1322" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1322" t="n">
         <v>0</v>
@@ -93485,7 +93489,7 @@
       </c>
       <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M1326" t="n">
         <v>0</v>
@@ -97645,7 +97649,7 @@
       </c>
       <c r="K1386" t="inlineStr"/>
       <c r="L1386" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M1386" t="n">
         <v>0</v>
@@ -98201,7 +98205,7 @@
       </c>
       <c r="K1394" t="inlineStr"/>
       <c r="L1394" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M1394" t="n">
         <v>0</v>
@@ -100892,7 +100896,7 @@
       </c>
       <c r="K1433" t="inlineStr"/>
       <c r="L1433" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1433" t="n">
         <v>1</v>
@@ -101168,7 +101172,7 @@
       </c>
       <c r="K1437" t="inlineStr"/>
       <c r="L1437" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1437" t="n">
         <v>1</v>
@@ -101789,7 +101793,7 @@
       </c>
       <c r="K1446" t="inlineStr"/>
       <c r="L1446" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M1446" t="n">
         <v>0</v>
@@ -102065,7 +102069,7 @@
       </c>
       <c r="K1450" t="inlineStr"/>
       <c r="L1450" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1450" t="n">
         <v>0</v>
@@ -102203,7 +102207,7 @@
       </c>
       <c r="K1452" t="inlineStr"/>
       <c r="L1452" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M1452" t="n">
         <v>0</v>
@@ -102548,7 +102552,7 @@
       </c>
       <c r="K1457" t="inlineStr"/>
       <c r="L1457" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M1457" t="n">
         <v>0</v>
@@ -102617,7 +102621,7 @@
       </c>
       <c r="K1458" t="inlineStr"/>
       <c r="L1458" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1458" t="n">
         <v>0</v>
@@ -103607,6 +103611,834 @@
       </c>
       <c r="S1472" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>1472</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>43.09640291</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>141.3234605</v>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1473" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1473" t="inlineStr">
+        <is>
+          <t>福祉施設</t>
+        </is>
+      </c>
+      <c r="G1473" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>障がい福祉サービス事業所(市387例)</t>
+        </is>
+      </c>
+      <c r="I1473" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1473" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1473" t="inlineStr"/>
+      <c r="L1473" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="inlineStr"/>
+      <c r="Q1473" t="inlineStr">
+        <is>
+          <t>福祉施設</t>
+        </is>
+      </c>
+      <c r="R1473" t="inlineStr">
+        <is>
+          <t>医療福祉介護</t>
+        </is>
+      </c>
+      <c r="S1473" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>1473</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>43.04724677</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>141.4209641</v>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1474" t="inlineStr">
+        <is>
+          <t>保育園/幼稚園</t>
+        </is>
+      </c>
+      <c r="G1474" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>認可外保育施設(市388例)</t>
+        </is>
+      </c>
+      <c r="I1474" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1474" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1474" t="inlineStr"/>
+      <c r="L1474" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="inlineStr"/>
+      <c r="Q1474" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1474" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1474" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>1474</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>43.02820531</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>141.4519332</v>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1475" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1475" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>交通局 高速電車部</t>
+        </is>
+      </c>
+      <c r="I1475" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1475" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1475" t="inlineStr"/>
+      <c r="L1475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="inlineStr"/>
+      <c r="Q1475" t="inlineStr">
+        <is>
+          <t>電車</t>
+        </is>
+      </c>
+      <c r="R1475" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1475" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>43.06187817</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>141.3250532</v>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1476" t="inlineStr">
+        <is>
+          <t>医療機関</t>
+        </is>
+      </c>
+      <c r="G1476" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>保健福祉局 保健所</t>
+        </is>
+      </c>
+      <c r="I1476" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1476" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1476" t="inlineStr"/>
+      <c r="L1476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="inlineStr"/>
+      <c r="Q1476" t="inlineStr">
+        <is>
+          <t>病室</t>
+        </is>
+      </c>
+      <c r="R1476" t="inlineStr">
+        <is>
+          <t>医療福祉介護</t>
+        </is>
+      </c>
+      <c r="S1476" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>1476</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>43.018475</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>141.3968646</v>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1477" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1477" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>札幌市立羊丘中学校</t>
+        </is>
+      </c>
+      <c r="I1477" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1477" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1477" t="inlineStr"/>
+      <c r="L1477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="inlineStr"/>
+      <c r="Q1477" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1477" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1477" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>1477</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>43.10091208</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>141.366944</v>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1478" t="inlineStr">
+        <is>
+          <t>小学校</t>
+        </is>
+      </c>
+      <c r="G1478" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1478" t="inlineStr">
+        <is>
+          <t>札幌市立元町北小学校</t>
+        </is>
+      </c>
+      <c r="I1478" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1478" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1478" t="inlineStr"/>
+      <c r="L1478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="inlineStr"/>
+      <c r="Q1478" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1478" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1478" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>1478</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>43.17557161</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>141.2657823</v>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>石狩地方</t>
+        </is>
+      </c>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>福祉施設</t>
+        </is>
+      </c>
+      <c r="G1479" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>グループホーム</t>
+        </is>
+      </c>
+      <c r="I1479" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1479" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1479" t="inlineStr"/>
+      <c r="L1479" t="n">
+        <v>9</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="inlineStr"/>
+      <c r="Q1479" t="inlineStr">
+        <is>
+          <t>福祉施設</t>
+        </is>
+      </c>
+      <c r="R1479" t="inlineStr">
+        <is>
+          <t>医療福祉介護</t>
+        </is>
+      </c>
+      <c r="S1479" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>1479</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>42.65310057</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>141.599166</v>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>苫小牧市</t>
+        </is>
+      </c>
+      <c r="F1480" t="inlineStr">
+        <is>
+          <t>高校</t>
+        </is>
+      </c>
+      <c r="G1480" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1480" t="inlineStr">
+        <is>
+          <t>北海道苫小牧東高等学校</t>
+        </is>
+      </c>
+      <c r="I1480" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1480" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1480" t="inlineStr"/>
+      <c r="L1480" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="inlineStr"/>
+      <c r="Q1480" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="R1480" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1480" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>1480</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>43.76482654</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>142.4008842</v>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>旭川市</t>
+        </is>
+      </c>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1481" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1481" t="inlineStr">
+        <is>
+          <t>企業(市40例)</t>
+        </is>
+      </c>
+      <c r="I1481" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1481" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1481" t="inlineStr"/>
+      <c r="L1481" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="inlineStr"/>
+      <c r="Q1481" t="inlineStr">
+        <is>
+          <t>オフィス</t>
+        </is>
+      </c>
+      <c r="R1481" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1481" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>1481</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>43.75094015</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>142.310247</v>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>旭川市</t>
+        </is>
+      </c>
+      <c r="F1482" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="G1482" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1482" t="inlineStr">
+        <is>
+          <t>飲食店(市41例)</t>
+        </is>
+      </c>
+      <c r="I1482" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1482" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1482" t="inlineStr"/>
+      <c r="L1482" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="inlineStr"/>
+      <c r="Q1482" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="R1482" t="inlineStr">
+        <is>
+          <t>飲食店</t>
+        </is>
+      </c>
+      <c r="S1482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>1482</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>41.79615395</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>140.7520769</v>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>函館市</t>
+        </is>
+      </c>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>警察</t>
+        </is>
+      </c>
+      <c r="G1483" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1483" t="inlineStr">
+        <is>
+          <t>道警 函館方面 函館中央警察署</t>
+        </is>
+      </c>
+      <c r="I1483" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1483" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1483" t="inlineStr"/>
+      <c r="L1483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="inlineStr"/>
+      <c r="Q1483" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1483" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1483" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>1483</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>43.09138878</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>141.3385667</v>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1484" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1484" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1484" t="inlineStr">
+        <is>
+          <t>JR北海道 在来線</t>
+        </is>
+      </c>
+      <c r="I1484" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1484" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
+      <c r="K1484" t="inlineStr"/>
+      <c r="L1484" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="inlineStr"/>
+      <c r="Q1484" t="inlineStr">
+        <is>
+          <t>電車</t>
+        </is>
+      </c>
+      <c r="R1484" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1484" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/csv/maps.xlsx
+++ b/csv/maps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1484"/>
+  <dimension ref="A1:S1498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92992,9 +92992,13 @@
           <t>2021/8/3</t>
         </is>
       </c>
-      <c r="K1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
       <c r="L1319" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1319" t="n">
         <v>0</v>
@@ -93489,7 +93493,7 @@
       </c>
       <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M1326" t="n">
         <v>0</v>
@@ -95086,7 +95090,11 @@
           <t>2021/8/6</t>
         </is>
       </c>
-      <c r="K1349" t="inlineStr"/>
+      <c r="K1349" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
       <c r="L1349" t="n">
         <v>6</v>
       </c>
@@ -95155,7 +95163,11 @@
           <t>2021/8/7</t>
         </is>
       </c>
-      <c r="K1350" t="inlineStr"/>
+      <c r="K1350" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
       <c r="L1350" t="n">
         <v>7</v>
       </c>
@@ -97787,7 +97799,7 @@
       </c>
       <c r="K1388" t="inlineStr"/>
       <c r="L1388" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M1388" t="n">
         <v>1</v>
@@ -98192,7 +98204,7 @@
       </c>
       <c r="H1394" t="inlineStr">
         <is>
-          <t>札幌刑務支所</t>
+          <t>札幌刑務支所(市391例)</t>
         </is>
       </c>
       <c r="I1394" t="n">
@@ -100342,7 +100354,11 @@
           <t>2021/8/14</t>
         </is>
       </c>
-      <c r="K1425" t="inlineStr"/>
+      <c r="K1425" t="inlineStr">
+        <is>
+          <t>2021/8/19</t>
+        </is>
+      </c>
       <c r="L1425" t="n">
         <v>13</v>
       </c>
@@ -100551,7 +100567,7 @@
       </c>
       <c r="K1428" t="inlineStr"/>
       <c r="L1428" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1428" t="n">
         <v>0</v>
@@ -100574,7 +100590,7 @@
         </is>
       </c>
       <c r="S1428" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1429">
@@ -101172,7 +101188,7 @@
       </c>
       <c r="K1437" t="inlineStr"/>
       <c r="L1437" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M1437" t="n">
         <v>1</v>
@@ -101724,7 +101740,7 @@
       </c>
       <c r="K1445" t="inlineStr"/>
       <c r="L1445" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M1445" t="n">
         <v>0</v>
@@ -102828,7 +102844,7 @@
       </c>
       <c r="K1461" t="inlineStr"/>
       <c r="L1461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1461" t="n">
         <v>0</v>
@@ -103518,7 +103534,7 @@
       </c>
       <c r="K1471" t="inlineStr"/>
       <c r="L1471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1471" t="n">
         <v>0</v>
@@ -104439,6 +104455,972 @@
       </c>
       <c r="S1484" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>1484</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>43.11644303</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>141.2066604</v>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1485" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1485" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1485" t="inlineStr">
+        <is>
+          <t>バス事業会社(市389例)</t>
+        </is>
+      </c>
+      <c r="I1485" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1485" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1485" t="inlineStr"/>
+      <c r="L1485" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="inlineStr"/>
+      <c r="Q1485" t="inlineStr">
+        <is>
+          <t>バス</t>
+        </is>
+      </c>
+      <c r="R1485" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1485" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>1485</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>43.04823806</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>141.4346268</v>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>大学</t>
+        </is>
+      </c>
+      <c r="G1486" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1486" t="inlineStr">
+        <is>
+          <t>大学(市390例)</t>
+        </is>
+      </c>
+      <c r="I1486" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1486" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1486" t="inlineStr"/>
+      <c r="L1486" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="inlineStr"/>
+      <c r="Q1486" t="inlineStr">
+        <is>
+          <t>運動部</t>
+        </is>
+      </c>
+      <c r="R1486" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1486" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>1486</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>43.05869174</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>141.3659443</v>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1487" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1487" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>下水道河川局 事業推進部</t>
+        </is>
+      </c>
+      <c r="I1487" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1487" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1487" t="inlineStr"/>
+      <c r="L1487" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="inlineStr"/>
+      <c r="Q1487" t="inlineStr">
+        <is>
+          <t>オフィス</t>
+        </is>
+      </c>
+      <c r="R1487" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1487" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>43.07809417</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>141.280341</v>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1488" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1488" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>札幌市立手稲東中学校</t>
+        </is>
+      </c>
+      <c r="I1488" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1488" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1488" t="inlineStr"/>
+      <c r="L1488" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="inlineStr"/>
+      <c r="Q1488" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1488" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1488" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>1488</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>43.04802151</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>141.4203312</v>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1489" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1489" t="inlineStr">
+        <is>
+          <t>札幌市立柏丘中学校</t>
+        </is>
+      </c>
+      <c r="I1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1489" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1489" t="inlineStr"/>
+      <c r="L1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="inlineStr"/>
+      <c r="Q1489" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1489" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1489" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>1489</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>43.03802679</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>141.3194384</v>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>高校</t>
+        </is>
+      </c>
+      <c r="G1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1490" t="inlineStr">
+        <is>
+          <t>市立札幌旭丘高等学校</t>
+        </is>
+      </c>
+      <c r="I1490" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1490" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1490" t="inlineStr"/>
+      <c r="L1490" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="inlineStr"/>
+      <c r="Q1490" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1490" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1490" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>43.1177706</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>141.3513409</v>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>札幌市</t>
+        </is>
+      </c>
+      <c r="F1491" t="inlineStr">
+        <is>
+          <t>小学校</t>
+        </is>
+      </c>
+      <c r="G1491" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1491" t="inlineStr">
+        <is>
+          <t>札幌市立栄北小学校</t>
+        </is>
+      </c>
+      <c r="I1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1491" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1491" t="inlineStr"/>
+      <c r="L1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="inlineStr"/>
+      <c r="Q1491" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1491" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1491" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>1491</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>43.18056657</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>140.9814407</v>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr">
+        <is>
+          <t>後志地方</t>
+        </is>
+      </c>
+      <c r="F1492" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1492" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1492" t="inlineStr">
+        <is>
+          <t>旅館</t>
+        </is>
+      </c>
+      <c r="I1492" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1492" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1492" t="inlineStr"/>
+      <c r="L1492" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="inlineStr"/>
+      <c r="Q1492" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1492" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1492" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>1492</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>43.74671402</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>142.4206497</v>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>上川地方</t>
+        </is>
+      </c>
+      <c r="F1493" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1493" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1493" t="inlineStr">
+        <is>
+          <t>個人宅懇親会</t>
+        </is>
+      </c>
+      <c r="I1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1493" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1493" t="inlineStr"/>
+      <c r="L1493" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="inlineStr"/>
+      <c r="Q1493" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1493" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1493" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>1493</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>42.63420531</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>141.6056062</v>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1494" t="inlineStr">
+        <is>
+          <t>苫小牧市</t>
+        </is>
+      </c>
+      <c r="F1494" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1494" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1494" t="inlineStr">
+        <is>
+          <t>苫小牧市役所 都市建設部</t>
+        </is>
+      </c>
+      <c r="I1494" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1494" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
+      <c r="K1494" t="inlineStr"/>
+      <c r="L1494" t="n">
+        <v>3</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="inlineStr"/>
+      <c r="Q1494" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1494" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1494" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>1494</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>42.63420531</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>141.6056062</v>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>苫小牧市</t>
+        </is>
+      </c>
+      <c r="F1495" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+      <c r="G1495" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1495" t="inlineStr">
+        <is>
+          <t>苫小牧市役所 福祉部</t>
+        </is>
+      </c>
+      <c r="I1495" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1495" t="inlineStr">
+        <is>
+          <t>2021/8/16</t>
+        </is>
+      </c>
+      <c r="K1495" t="inlineStr"/>
+      <c r="L1495" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="inlineStr"/>
+      <c r="Q1495" t="inlineStr">
+        <is>
+          <t>共用室</t>
+        </is>
+      </c>
+      <c r="R1495" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="S1495" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>1495</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>42.89351189</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>141.5884129</v>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>恵庭市</t>
+        </is>
+      </c>
+      <c r="F1496" t="inlineStr">
+        <is>
+          <t>中学校</t>
+        </is>
+      </c>
+      <c r="G1496" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1496" t="inlineStr">
+        <is>
+          <t>恵庭市立恵明中学校</t>
+        </is>
+      </c>
+      <c r="I1496" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1496" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1496" t="inlineStr"/>
+      <c r="L1496" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="inlineStr"/>
+      <c r="Q1496" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1496" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1496" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>1496</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>42.89098576</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>143.224916</v>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>幕別町</t>
+        </is>
+      </c>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>小学校</t>
+        </is>
+      </c>
+      <c r="G1497" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1497" t="inlineStr">
+        <is>
+          <t>幕別町立途別小学校</t>
+        </is>
+      </c>
+      <c r="I1497" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1497" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1497" t="inlineStr"/>
+      <c r="L1497" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="inlineStr"/>
+      <c r="Q1497" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1497" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1497" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>1497</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>43.18718381</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>141.7767771</v>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>岩見沢市</t>
+        </is>
+      </c>
+      <c r="F1498" t="inlineStr">
+        <is>
+          <t>大学</t>
+        </is>
+      </c>
+      <c r="G1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1498" t="inlineStr">
+        <is>
+          <t>北海道教育大学 岩見沢校</t>
+        </is>
+      </c>
+      <c r="I1498" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1498" t="inlineStr">
+        <is>
+          <t>2021/8/20</t>
+        </is>
+      </c>
+      <c r="K1498" t="inlineStr"/>
+      <c r="L1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="inlineStr"/>
+      <c r="Q1498" t="inlineStr">
+        <is>
+          <t>教室</t>
+        </is>
+      </c>
+      <c r="R1498" t="inlineStr">
+        <is>
+          <t>教育/保育</t>
+        </is>
+      </c>
+      <c r="S1498" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
